--- a/Danh sach lop.xlsx
+++ b/Danh sach lop.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>01676513568</t>
   </si>
   <si>
-    <t>Khóa TOECI 300-500 (13/8/2016 - 20/11/2016)</t>
-  </si>
-  <si>
     <t>Khóa TOECI 500-700 (18/10/2016 - 30/01/2016)</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>đăng ký 3 bạn</t>
+  </si>
+  <si>
+    <t>Khóa TOECI 300-500 K1 (13/8/2016 - 20/11/2016)</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -806,7 +806,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -833,19 +833,19 @@
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -1404,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
@@ -1522,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1536,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -1553,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1567,16 +1567,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/Danh sach lop.xlsx
+++ b/Danh sach lop.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary1" sheetId="1" r:id="rId1"/>
     <sheet name="Elementary2" sheetId="2" r:id="rId2"/>
-    <sheet name="TOEIC 300-500" sheetId="3" r:id="rId3"/>
-    <sheet name="TOEIC 500-700" sheetId="4" r:id="rId4"/>
+    <sheet name="TOEIC 300-500 K1" sheetId="3" r:id="rId3"/>
+    <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId4"/>
     <sheet name="S&amp;L online" sheetId="5" r:id="rId5"/>
     <sheet name="Danh sach dang ky" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -160,15 +160,6 @@
     <t>01676513568</t>
   </si>
   <si>
-    <t>Khóa TOECI 500-700 (18/10/2016 - 30/01/2016)</t>
-  </si>
-  <si>
-    <t>Khóa S&amp;L online 1 (18/7/2016 - 20/9/2016)</t>
-  </si>
-  <si>
-    <t>Khóa S&amp;L online 2 (27/9/2016 - 27/11/2016)</t>
-  </si>
-  <si>
     <t>Như Nguyễn</t>
   </si>
   <si>
@@ -238,7 +229,19 @@
     <t>đăng ký 3 bạn</t>
   </si>
   <si>
-    <t>Khóa TOECI 300-500 K1 (13/8/2016 - 20/11/2016)</t>
+    <t>Khóa TOEIC 300-500 K1 (13/8/2016 - 20/11/2016)</t>
+  </si>
+  <si>
+    <t>01282671995</t>
+  </si>
+  <si>
+    <t>Khóa S&amp;L online 1 K1 (18/7/2016 - 20/9/2016)</t>
+  </si>
+  <si>
+    <t>Khóa S&amp;L online 2 K2 (27/9/2016 - 27/11/2016)</t>
+  </si>
+  <si>
+    <t>Khóa TOECI 500-700 K1 (18/10/2016 - 30/01/2016)</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -348,6 +351,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +813,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G2" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -833,19 +840,19 @@
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,7 +1251,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,7 +1333,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -1390,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -1452,7 +1459,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
@@ -1500,16 +1507,16 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="12" width="9" style="1"/>
   </cols>
@@ -1522,12 +1529,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1536,16 +1543,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -1553,13 +1560,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1567,16 +1577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
+      <c r="E4" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,13 +1594,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/Danh sach lop.xlsx
+++ b/Danh sach lop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -67,9 +67,6 @@
     <t>01227968933</t>
   </si>
   <si>
-    <t>Khóa Elementary 1 (11/10/2016-11/01/2017)</t>
-  </si>
-  <si>
     <t>Học phí</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Học tiếp</t>
   </si>
   <si>
-    <t>Khóa Elementary 2 (15/7/2016 - 17/10/2017)</t>
-  </si>
-  <si>
     <t>Nguyễn Mai Mỹ Hậu</t>
   </si>
   <si>
@@ -242,6 +236,18 @@
   </si>
   <si>
     <t>Khóa TOECI 500-700 K1 (18/10/2016 - 30/01/2016)</t>
+  </si>
+  <si>
+    <t>Khóa Elementary 1 - K2 (11/10/2016-11/01/2017)</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Vương</t>
+  </si>
+  <si>
+    <t>Khóa Elementary 2 - K1 (15/7/2016 - 17/10/2017)</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -355,6 +361,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,26 +650,28 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -670,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -693,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -714,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -735,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -765,21 +779,63 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="20" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="22" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -791,13 +847,13 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -808,17 +864,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="G2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -834,25 +890,25 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10">
         <v>1995</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -892,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10">
         <v>1997</v>
@@ -914,13 +970,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10">
         <v>1998</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -946,19 +1002,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10">
         <v>1993</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10">
         <v>19</v>
@@ -982,19 +1038,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10">
         <v>1993</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="10">
         <v>24</v>
@@ -1018,19 +1074,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10">
         <v>1993</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="10">
         <v>16</v>
@@ -1054,19 +1110,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10">
         <v>1993</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10">
         <v>21</v>
@@ -1090,17 +1146,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="10">
         <v>9</v>
@@ -1124,14 +1180,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1148,14 +1204,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1172,14 +1228,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10">
         <v>1998</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10">
@@ -1204,19 +1260,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10">
         <v>1992</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="10">
         <v>19</v>
@@ -1250,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1264,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,16 +1348,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>1994</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1310,16 +1366,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>1993</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1346,7 +1402,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -1411,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,10 +1484,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1439,15 +1495,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,7 +1515,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1477,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1488,12 +1544,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1506,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1529,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -1543,16 +1599,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -1560,16 +1616,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1577,16 +1633,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1594,13 +1650,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
